--- a/ESTADISTICA/OTROS/tabla frecuencias.xlsx
+++ b/ESTADISTICA/OTROS/tabla frecuencias.xlsx
@@ -1,20 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebacorreoescuelaingeduco-my.sharepoint.com/personal/juan_fonseca-c_mail_escuelaing_edu_co/Documents/CURSOS/ESTADISTICA/OTROS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C13FF30-CF56-483D-BB83-FA75D4711C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{7C13FF30-CF56-483D-BB83-FA75D4711C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E40D05D-DE09-4F17-BC63-92CC19859F3F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{BEF86785-7B3E-46A7-B463-C28A67B92995}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="2" xr2:uid="{BEF86785-7B3E-46A7-B463-C28A67B92995}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="frecuencia" sheetId="1" r:id="rId1"/>
+    <sheet name="histograma" sheetId="2" r:id="rId2"/>
+    <sheet name="box-plot" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">frecuencia!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">frecuencia!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">frecuencia!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">frecuencia!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">frecuencia!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">frecuencia!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">frecuencia!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">frecuencia!$A$19:$A$25</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">frecuencia!$D$18</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">frecuencia!$D$19:$D$25</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'box-plot'!$B$11:$B$35</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'box-plot'!$C$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">frecuencia!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'box-plot'!$C$11:$C$35</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'box-plot'!$B$11:$B$35</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'box-plot'!$C$10</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'box-plot'!$C$11:$C$35</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">frecuencia!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">frecuencia!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">frecuencia!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">frecuencia!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">frecuencia!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">frecuencia!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">frecuencia!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">frecuencia!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">frecuencia!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">frecuencia!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">frecuencia!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">frecuencia!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">frecuencia!$B$9:$I$9</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,17 +78,17 @@
   <commentList>
     <comment ref="B13" authorId="0" shapeId="0" xr:uid="{6CEF89E7-C9D7-43DD-BE9F-BB99E130A6CB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Se redondea siempre</t>
       </text>
     </comment>
     <comment ref="F18" authorId="1" shapeId="0" xr:uid="{E85E177E-A428-48C3-BC8F-AE121A6F8001}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Es la suma de la respectiva frecuencia</t>
       </text>
     </comment>
@@ -85,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>DATOS</t>
   </si>
@@ -122,6 +156,51 @@
   <si>
     <t>Relativa</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Columna</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Trabajador</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +211,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,19 +443,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,6 +464,1574 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>frecuencia!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frec. Absoluta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>frecuencia!$A$19:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>frecuencia!$D$19:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2199-41B9-9EE2-27A1284B08FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377830767"/>
+        <c:axId val="1377828271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377830767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377828271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377828271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377830767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.18</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F8797347-7C13-4054-A965-042C33B941C7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:v>Calificación</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800D2754-D5EA-4229-A55B-559A50D5E3D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>494196</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>124791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494196</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134730</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Gráfico 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9325D577-EC11-0114-D8FF-8F6E2BE2118A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2796761" y="3769139"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="JUAN FONSECA" id="{04131339-3748-48CA-B323-3685F2D3D798}" userId="JUAN FONSECA" providerId="None"/>
@@ -392,7 +2039,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -699,27 +2346,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5126FD3D-AEC0-4C25-A108-E66895DAC796}">
-  <dimension ref="B5:I26"/>
+  <dimension ref="A5:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1706</v>
       </c>
@@ -745,7 +2392,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1712</v>
       </c>
@@ -771,7 +2418,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1716</v>
       </c>
@@ -797,7 +2444,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1719</v>
       </c>
@@ -823,7 +2470,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1724</v>
       </c>
@@ -849,7 +2496,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -862,7 +2509,7 @@
         <v>6.324555320336759</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -871,7 +2518,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -880,7 +2527,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -889,30 +2536,34 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1"/>
-    <row r="18" spans="2:7" ht="15" thickBot="1">
-      <c r="B18" s="19" t="s">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="20"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="14" t="s">
         <v>10</v>
       </c>
@@ -920,7 +2571,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="B20" s="5">
         <f>D14</f>
         <v>1706</v>
@@ -946,7 +2600,10 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="B21" s="8">
         <f>C20</f>
         <v>1710.6666666666667</v>
@@ -959,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:E26" si="0">D21/$D$26</f>
+        <f t="shared" ref="E21:E25" si="0">D21/$D$26</f>
         <v>0.27500000000000002</v>
       </c>
       <c r="F21">
@@ -971,7 +2628,10 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="B22" s="8">
         <f>C21</f>
         <v>1715.3333333333335</v>
@@ -996,7 +2656,10 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="B23" s="8">
         <f t="shared" ref="B23:B25" si="4">C22</f>
         <v>1720.0000000000002</v>
@@ -1021,7 +2684,10 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="B24" s="8">
         <f t="shared" si="4"/>
         <v>1724.666666666667</v>
@@ -1046,7 +2712,10 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="B25" s="9">
         <f t="shared" si="4"/>
         <v>1729.3333333333337</v>
@@ -1071,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26">
         <f>SUM(_xlfn.ANCHORARRAY(D20))</f>
@@ -1083,7 +2752,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="D18:D19"/>
@@ -1094,4 +2764,298 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD6E6E-FBDC-49C3-A44E-576B3377C032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2D8663-64E2-45C8-A213-5ABAB3FEE41C}">
+  <dimension ref="B4:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <f ca="1">_xlfn.QUARTILE.INC(C11:C35, 1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f ca="1">_xlfn.QUARTILE.INC(C11:C35, 2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <f ca="1">_xlfn.QUARTILE.INC(C11:C35, 3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C35" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ESTADISTICA/OTROS/tabla frecuencias.xlsx
+++ b/ESTADISTICA/OTROS/tabla frecuencias.xlsx
@@ -18,36 +18,9 @@
     <sheet name="box-plot" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">frecuencia!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">frecuencia!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">frecuencia!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">frecuencia!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">frecuencia!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">frecuencia!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">frecuencia!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">frecuencia!$A$19:$A$25</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">frecuencia!$D$18</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">frecuencia!$D$19:$D$25</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'box-plot'!$B$11:$B$35</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'box-plot'!$C$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">frecuencia!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'box-plot'!$C$11:$C$35</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'box-plot'!$B$11:$B$35</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'box-plot'!$C$10</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'box-plot'!$C$11:$C$35</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">frecuencia!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">frecuencia!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">frecuencia!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">frecuencia!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">frecuencia!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">frecuencia!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">frecuencia!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">frecuencia!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">frecuencia!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">frecuencia!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">frecuencia!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">frecuencia!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">frecuencia!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'box-plot'!$B$11:$B$35</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'box-plot'!$C$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'box-plot'!$C$11:$C$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -768,10 +741,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -782,7 +755,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F8797347-7C13-4054-A965-042C33B941C7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Calificación</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1998,8 +1971,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2796761" y="3769139"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="2799246" y="3807791"/>
+              <a:ext cx="4572000" cy="2772189"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2785,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2D8663-64E2-45C8-A213-5ABAB3FEE41C}">
   <dimension ref="B4:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2800,7 +2773,7 @@
       </c>
       <c r="C4">
         <f ca="1">_xlfn.QUARTILE.INC(C11:C35, 1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -2809,7 +2782,7 @@
       </c>
       <c r="C5">
         <f ca="1">_xlfn.QUARTILE.INC(C11:C35, 2)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -2818,7 +2791,7 @@
       </c>
       <c r="C6">
         <f ca="1">_xlfn.QUARTILE.INC(C11:C35, 3)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -2835,7 +2808,7 @@
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -2844,7 +2817,7 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C35" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -2853,7 +2826,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -2862,7 +2835,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -2871,7 +2844,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
@@ -2880,7 +2853,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
@@ -2889,7 +2862,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
@@ -2898,7 +2871,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
@@ -2907,7 +2880,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
@@ -2916,7 +2889,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
@@ -2925,7 +2898,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
@@ -2934,7 +2907,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
@@ -2943,7 +2916,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
@@ -2952,7 +2925,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
@@ -2961,7 +2934,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
@@ -2970,7 +2943,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
@@ -2979,7 +2952,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
@@ -2988,7 +2961,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
@@ -2997,7 +2970,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
@@ -3015,7 +2988,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
@@ -3024,7 +2997,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
@@ -3033,7 +3006,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
@@ -3042,7 +3015,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
@@ -3051,7 +3024,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
